--- a/Παραδοτεο 3/domain_classes.xlsx
+++ b/Παραδοτεο 3/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτεο 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E5F49B-BDA1-3641-8654-184285D3E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F73B7A-AFFD-3B45-9023-8A87B831BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10860" yWindow="-27340" windowWidth="60260" windowHeight="27340" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="-10860" yWindow="-28300" windowWidth="60260" windowHeight="27020" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -1043,9 +1043,6 @@
     <t>ternminateRentalTermination()</t>
   </si>
   <si>
-    <t>increaseReliabilityScore(earlyPaymentsDetected)</t>
-  </si>
-  <si>
     <t>storeReliabilityScore()</t>
   </si>
   <si>
@@ -1160,9 +1157,6 @@
     <t>selectArrival()</t>
   </si>
   <si>
-    <t>MANAGET SCREENS</t>
-  </si>
-  <si>
     <t>SIMPLE CLASSES</t>
   </si>
   <si>
@@ -1170,13 +1164,19 @@
   </si>
   <si>
     <t>FORMS</t>
+  </si>
+  <si>
+    <t>MANAGER SCREENS</t>
+  </si>
+  <si>
+    <t>increaseReliabilityScore()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1367,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,6 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,6 +1463,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,11 +1807,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -1818,14 +1820,14 @@
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.5" customWidth="1"/>
     <col min="10" max="10" width="34.5" customWidth="1"/>
     <col min="11" max="11" width="42.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.1640625" customWidth="1"/>
     <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="45.83203125" customWidth="1"/>
-    <col min="15" max="15" width="30.5" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.83203125" customWidth="1"/>
     <col min="18" max="18" width="26.83203125" customWidth="1"/>
@@ -1840,69 +1842,69 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:29" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>325</v>
       </c>
       <c r="P2" s="7"/>
@@ -1920,50 +1922,50 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:29" ht="35" customHeight="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="M3" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>324</v>
       </c>
       <c r="P3" s="3"/>
@@ -1980,48 +1982,48 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>327</v>
       </c>
       <c r="P4" s="3"/>
@@ -2038,46 +2040,46 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="O5" s="12" t="s">
+      <c r="M5" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>334</v>
       </c>
       <c r="P5" s="3"/>
@@ -2094,44 +2096,44 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="O6" s="12"/>
+      <c r="M6" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="O6" s="13"/>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -2146,30 +2148,30 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2184,26 +2186,26 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2218,26 +2220,26 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2252,26 +2254,26 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2286,24 +2288,24 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2318,22 +2320,22 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="84" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="10"/>
+    <row r="12" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2348,24 +2350,24 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="59" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+    <row r="13" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2380,100 +2382,100 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="17" t="s">
         <v>48</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:29" ht="30" customHeight="1">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="14" t="s">
         <v>227</v>
       </c>
       <c r="Z15" s="5"/>
@@ -2481,44 +2483,44 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="1:29" ht="30" customHeight="1">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="14" t="s">
         <v>245</v>
       </c>
       <c r="Z16" s="5"/>
@@ -2526,234 +2528,234 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:30" ht="30" customHeight="1">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="O17" s="13"/>
+      <c r="O17" s="14"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="1:30" ht="30" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13" t="s">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="O18" s="13"/>
+      <c r="O18" s="14"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:30" ht="30" customHeight="1">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="O19" s="13"/>
+      <c r="O19" s="14"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="1:30" ht="30" customHeight="1">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="O20" s="13"/>
+      <c r="O20" s="14"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:30" ht="30" customHeight="1">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="O21" s="13"/>
+      <c r="O21" s="14"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="1:30" ht="30" customHeight="1">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:30" ht="30" customHeight="1">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
       <c r="P23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -2768,28 +2770,28 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="1:30" ht="30" customHeight="1">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
       <c r="P24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -2804,26 +2806,26 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:30" ht="30" customHeight="1">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
       <c r="P25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -2838,35 +2840,35 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="6"/>
     </row>
-    <row r="26" spans="1:30" ht="30" customHeight="1">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K26" s="5"/>
@@ -2889,36 +2891,36 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:30" ht="30" customHeight="1">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>351</v>
+      <c r="I27" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2940,31 +2942,31 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="6"/>
     </row>
-    <row r="28" spans="1:30" ht="30" customHeight="1">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J28" s="13"/>
+      <c r="H28" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="J28" s="14"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2985,29 +2987,29 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="6"/>
     </row>
-    <row r="29" spans="1:30" ht="30" customHeight="1">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="D29" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="14"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -3028,25 +3030,25 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="6"/>
     </row>
-    <row r="30" spans="1:30" ht="30" customHeight="1">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="J30" s="13"/>
+      <c r="D30" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="J30" s="14"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -3067,28 +3069,27 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="6"/>
     </row>
-    <row r="31" spans="1:30" ht="30" customHeight="1">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="J31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" s="14"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3104,22 +3105,21 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="6"/>
     </row>
-    <row r="32" spans="1:30" ht="66" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+    <row r="32" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="5"/>
+      <c r="N32" s="36"/>
       <c r="P32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -3135,24 +3135,23 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="68" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="5"/>
+    <row r="33" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
       <c r="P33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
@@ -3168,48 +3167,45 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="6"/>
     </row>
-    <row r="34" spans="1:30" ht="30" customHeight="1">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="5"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="38"/>
       <c r="P34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -3225,48 +3221,45 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="6"/>
     </row>
-    <row r="35" spans="1:30" ht="30" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="5"/>
+      <c r="L35" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="38"/>
       <c r="P35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -3282,48 +3275,45 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="6"/>
     </row>
-    <row r="36" spans="1:30" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="3"/>
+      <c r="L36" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3338,321 +3328,327 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="12" t="s">
-        <v>367</v>
-      </c>
+      <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="M38" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
+      <c r="B42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="15"/>
-    </row>
-    <row r="44" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="9" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3666,7 +3662,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3680,17 +3676,17 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:29" ht="45" customHeight="1">
-      <c r="A52" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+    <row r="52" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3712,29 +3708,29 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" ht="30" customHeight="1">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="25" t="s">
         <v>39</v>
       </c>
       <c r="I53" s="3"/>
@@ -3758,29 +3754,29 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" ht="30" customHeight="1">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="14" t="s">
         <v>295</v>
       </c>
       <c r="I54" s="5"/>
@@ -3804,25 +3800,25 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" ht="30" customHeight="1">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
+      <c r="E55" s="14"/>
+      <c r="F55" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="14" t="s">
         <v>301</v>
       </c>
       <c r="I55" s="5"/>
@@ -3842,28 +3838,25 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" ht="30" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
+    <row r="56" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="5"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -3880,24 +3873,21 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
+    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="5"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -3914,40 +3904,34 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="31" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12" t="s">
+    <row r="58" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="5"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13" t="s">
+    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="5"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -3964,7 +3948,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1">
+    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3974,9 +3958,6 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -3993,11 +3974,11 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1">
-      <c r="A61" s="25" t="s">
+    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>168</v>
       </c>
       <c r="C61" s="3"/>
@@ -4008,9 +3989,6 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -4027,11 +4005,11 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>169</v>
       </c>
       <c r="C62" s="3"/>
@@ -4060,11 +4038,11 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="30" customHeight="1">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>170</v>
       </c>
       <c r="C63" s="3"/>
@@ -4094,11 +4072,11 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C64" s="3"/>
@@ -4128,9 +4106,9 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="12" t="s">
+    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C65" s="3"/>
@@ -4160,9 +4138,9 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="12" t="s">
+    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="13" t="s">
         <v>173</v>
       </c>
       <c r="C66" s="3"/>
@@ -4192,9 +4170,9 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="12" t="s">
+    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="13" t="s">
         <v>174</v>
       </c>
       <c r="C67" s="3"/>
@@ -4224,9 +4202,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1">
-      <c r="A68" s="13"/>
-      <c r="B68" s="12" t="s">
+    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C68" s="3"/>
@@ -4256,9 +4234,9 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="12" t="s">
+    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="13" t="s">
         <v>302</v>
       </c>
       <c r="C69" s="3"/>
@@ -4288,7 +4266,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1">
+    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4318,7 +4296,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1">
+    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4348,8 +4326,8 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1">
-      <c r="A72" s="20" t="s">
+    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="3"/>
@@ -4380,8 +4358,8 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B73" s="3"/>
@@ -4412,8 +4390,8 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="3"/>
@@ -4445,8 +4423,8 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B75" s="3"/>
@@ -4478,8 +4456,8 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="3"/>
@@ -4511,8 +4489,8 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B77" s="3"/>
@@ -4544,8 +4522,8 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="30" customHeight="1">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B78" s="3"/>
@@ -4577,8 +4555,8 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="30" customHeight="1">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B79" s="3"/>
@@ -4610,8 +4588,8 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B80" s="3"/>
@@ -4643,8 +4621,8 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B81" s="3"/>
@@ -4676,8 +4654,8 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B82" s="3"/>
@@ -4709,8 +4687,8 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B83" s="3"/>
@@ -4742,8 +4720,8 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1">
-      <c r="A84" s="9" t="s">
+    <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>166</v>
       </c>
       <c r="B84" s="3"/>
@@ -4775,8 +4753,8 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B85" s="3"/>
@@ -4808,8 +4786,8 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>198</v>
       </c>
       <c r="O86" s="3"/>
@@ -4828,8 +4806,8 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
         <v>203</v>
       </c>
       <c r="O87" s="3"/>
@@ -4848,8 +4826,8 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>204</v>
       </c>
       <c r="O88" s="3"/>
@@ -4868,129 +4846,129 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>208</v>
       </c>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>216</v>
       </c>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>232</v>
       </c>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>246</v>
       </c>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1">
-      <c r="A96" s="9" t="s">
+    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1">
-      <c r="A97" s="9" t="s">
+    <row r="97" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30" customHeight="1">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="30" customHeight="1">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30" customHeight="1">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" customHeight="1">
-      <c r="A101" s="9" t="s">
+    <row r="101" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="30" customHeight="1">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="30" customHeight="1">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" customHeight="1">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="30" customHeight="1">
-      <c r="A105" s="9" t="s">
+    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="30" customHeight="1">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="30" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="30" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="30" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="30" customHeight="1"/>
-    <row r="112" spans="1:1" ht="30" customHeight="1"/>
-    <row r="113" ht="30" customHeight="1"/>
+    <row r="107" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A13:O13"/>
     <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Παραδοτεο 3/domain_classes.xlsx
+++ b/Παραδοτεο 3/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτεο 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F73B7A-AFFD-3B45-9023-8A87B831BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89BF29-05E6-564F-B2C1-B9FE35530CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10860" yWindow="-28300" windowWidth="60260" windowHeight="27020" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="22520" yWindow="-27020" windowWidth="67720" windowHeight="27020" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="438">
   <si>
     <t>MainScreen</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>initiateRentalTermination(rental)</t>
   </si>
   <si>
-    <t>Rental Termination</t>
-  </si>
-  <si>
     <t>isContractEnded(rental)</t>
   </si>
   <si>
@@ -1170,13 +1167,366 @@
   </si>
   <si>
     <t>increaseReliabilityScore()</t>
+  </si>
+  <si>
+    <t>- int listingID;
+- List&lt;Listing&gt; activeListings;
+- List&lt;Photo&gt; listingPhotos;
+- User currentUser;
+- RoommatePreferences roommatePreferences;</t>
+  </si>
+  <si>
+    <t>- int currentListingID;
+- Coordinates currentCoordinates;
+- List&lt;Listing&gt; nearbyListings;
+- boolean locationConfirmed;</t>
+  </si>
+  <si>
+    <t>- UserPreferences userPreferences;
+- List&lt;Listing&gt; filteredListings;
+- List&lt;Listing&gt; scoredListings;
+- Listing selectedListing;</t>
+  </si>
+  <si>
+    <t>- List&lt;Experience&gt; allExperiences;
+- List&lt;Experience&gt; validExperiences;
+- Map&lt;Integer, List&lt;User&gt;&gt; listingParticipants; // ListingID → συμμετέχοντες
+- Set&lt;Pair&lt;Integer, Integer&gt;&gt; evaluations; // (participantID, listingID)</t>
+  </si>
+  <si>
+    <t>- Map&lt;Integer, VerificationRequest&gt; verificationRequests; // userID → αίτημα</t>
+  </si>
+  <si>
+    <t>- Listing currentListing;
+- User currentUser;
+- Interest interestObject;
+- EmailTemplate interestEmail;</t>
+  </si>
+  <si>
+    <t>- User currentUser;
+- PaymentSession activePaymentSession;
+- DelayStats userDelayStats;
+- double reliabilityScore;</t>
+  </si>
+  <si>
+    <t>- User currentUser;
+- List&lt;PaymentMethod&gt; userPaymentMethods;
+- PaymentMethod selectedPaymentMethod;</t>
+  </si>
+  <si>
+    <t>- User currentUser;
+- TopUpRequest topUpRequest;
+- boolean topUpFormValid;</t>
+  </si>
+  <si>
+    <t>- List&lt;Listing&gt; ownerListings;
+- List&lt;InterestDeclaration&gt; activeInterests;
+- RentalProcedure currentProcedure;</t>
+  </si>
+  <si>
+    <t>- List&lt;RentalRequest&gt; pendingRequests;
+- DocumentSet uploadedDocuments;
+- boolean termsAccepted;</t>
+  </si>
+  <si>
+    <t>- List&lt;Rental&gt; temporaryRentals;
+- Rental selectedRental;
+- Contract contract;
+- RentalDetails validDetails;
+- Owner currentOwner;</t>
+  </si>
+  <si>
+    <t>- User currentUser;
+- ChatSession currentChatSession;
+- List&lt;ChatMessage&gt; chatHistory;</t>
+  </si>
+  <si>
+    <t>- List&lt;Visit&gt; scheduledVisits;
+- Visit selectedVisit;
+- boolean locationPermissionGranted;
+- boolean visitConfirmed;</t>
+  </si>
+  <si>
+    <t>- Rental rentalToTerminate;
+- TerminationRequest terminationRequest;
+- boolean terminationConfirmed;</t>
+  </si>
+  <si>
+    <t>- int listingID;
+- int ownerID;
+- String status;
+- Preferences preferences;
+- double suitabilityScore;
+- boolean isAvailable;
+- ListingType type;
+- int capacity;
+- Contract contract;</t>
+  </si>
+  <si>
+    <t>- int interestID;
+- int userID;
+- int listingID;
+- String message;
+- LocalDate interestDate;</t>
+  </si>
+  <si>
+    <t>- String content;
+- MessageType type; // e.g. ERROR, SUCCESS, PROMPT, WARNING
+- LocalDateTime timestamp;</t>
+  </si>
+  <si>
+    <t>- int photoID;
+- int listingID;
+- byte[] imageData;
+- String fileType;
+- String description;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - double latitude;
+- double longitude;
+- String address;
+- String city;
+- String postalCode;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- Preferences preferences;
+- boolean hasCustomPreferences;</t>
+  </si>
+  <si>
+    <t>- int contractID;
+- Rental rental;
+- User owner;
+- List&lt;User&gt; renters;
+- LocalDate startDate;
+- LocalDate endDate;
+- boolean isActive;
+- LocalDate paymentDeadline;
+- ContractPDF contractPDF;</t>
+  </si>
+  <si>
+    <t>- int reviewID;
+- int reviewerID;
+- int revieweeID;
+- String content;
+- int rating;
+- LocalDate date;
+- EvaluationType evaluationType;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- String email;
+- String phone;
+- double reputationScore;
+- List&lt;String&gt; reputationTags;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- double averageScore;
+- double variance;
+- double trustScore;
+- boolean isNewUser;
+- List&lt;Evaluation&gt; evaluations;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- List&lt;TimeSlot&gt; availabilitySlots;
+- List&lt;TimeSlot&gt; commonAvailability;</t>
+  </si>
+  <si>
+    <t>- int contractID;
+- List&lt;Payment&gt; paymentRecords;
+- double totalOwed;
+- List&lt;Delay&gt; delays;</t>
+  </si>
+  <si>
+    <t>- int contractID;
+- Map&lt;Integer, PDFDocument&gt; monthlyReceipts;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- double balance;
+- PaymentMethod defaultPaymentMethod;</t>
+  </si>
+  <si>
+    <t>- int transactionID;
+- int userID;
+- double amount;
+- LocalDateTime timestamp;
+- TransactionStatus status;
+- String errorMessage;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- List&lt;CardDetails&gt; methods;
+- CardDetails defaultMethod;</t>
+  </si>
+  <si>
+    <t>- int notificationID;
+- String message;
+- LocalDateTime timestamp;
+- List&lt;User&gt; recipients;
+- NotificationType type; // e.g. Chat, RentalRequest, Arrival</t>
+  </si>
+  <si>
+    <t>- Rental rental;
+- LocalDate startDate;
+- LocalDate endDate;
+- double rentAmount;
+- List&lt;CustomTerm&gt; additionalTerms;</t>
+  </si>
+  <si>
+    <t>- DocumentSet documentSet;
+- List&lt;String&gt; validationErrors;
+- boolean isValid;</t>
+  </si>
+  <si>
+    <t>- Rental rental;
+- List&lt;Document&gt; uploadedDocuments;
+- boolean isReadyForFinalization;</t>
+  </si>
+  <si>
+    <t>- int userID;
+- double score;
+- int numberOfPayments;
+- int numberOfDelays;</t>
+  </si>
+  <si>
+    <t>- int sessionID;
+- Rental rental;
+- List&lt;User&gt; participants;
+- List&lt;ChatMessage&gt; messages;</t>
+  </si>
+  <si>
+    <t>- int messageID;
+- ChatSession session;
+- User sender;
+- String content;
+- LocalDateTime timestamp;</t>
+  </si>
+  <si>
+    <t>- User currentUser;
+- List&lt;Listing&gt; displayedListings;
+- Listing selectedListing;
+- Experience selectedExperience;</t>
+  </si>
+  <si>
+    <t>- ListingForm listingForm;
+- PhotoForm photoForm;
+- Message displayMessage;
+- Listing activeListing;</t>
+  </si>
+  <si>
+    <t>- Listing listing;
+- LocationForm locationForm;
+- Coordinates selectedCoordinates;
+- Marker currentMarker;
+- List&lt;Suggestion&gt; suggestions;</t>
+  </si>
+  <si>
+    <t>- User user;
+- List&lt;Experience&gt; experiences;
+- Experience selectedExperience;</t>
+  </si>
+  <si>
+    <t>- List&lt;TimeSlot&gt; availabilitySlots;
+- List&lt;TimeSlot&gt; commonTimeSlots;
+- Message notificationMessage;</t>
+  </si>
+  <si>
+    <t>- Wallet userWallet;
+- PaymentMethod selectedMethod;
+- TopUpForm topUpForm;</t>
+  </si>
+  <si>
+    <t>- SearchForm searchForm;
+- Preferences preferences;
+- List&lt;Listing&gt; searchResults;
+- Listing selectedListing;
+- ListingDetails listingDetails;</t>
+  </si>
+  <si>
+    <t>- PaymentForm paymentForm;
+- Rental currentRental;
+- Summary receiptSummary;</t>
+  </si>
+  <si>
+    <t>- List&lt;RentalRequest&gt; rentalRequests;
+- RentalRequest selectedRequest;
+- User selectedUser;
+- TrustScore trustScore;</t>
+  </si>
+  <si>
+    <t>- List&lt;RentalRequest&gt; rentalRequests;
+- DocumentUploadForm documentForm;
+- RentalApplication selectedApplication;</t>
+  </si>
+  <si>
+    <t>- List&lt;Rental&gt; temporaryRentals;
+- Rental selectedRental;
+- ContractForm contractForm;</t>
+  </si>
+  <si>
+    <t>- ChatSession currentSession;
+- List&lt;ChatMessage&gt; messages;
+- ChatInputField messageInput;</t>
+  </si>
+  <si>
+    <t>- List&lt;Visit&gt; scheduledVisits;
+- Visit selectedVisit;
+- LocationPermissionStatus permissionStatus;</t>
+  </si>
+  <si>
+    <t>- Listing listingData;
+- List&lt;Photo&gt; uploadedPhotos;</t>
+  </si>
+  <si>
+    <t>- List&lt;Photo&gt; photoList;
+- List&lt;Photo&gt; invalidPhotos;</t>
+  </si>
+  <si>
+    <t>- SearchCriteria searchCriteria;
+- boolean isFormValid;</t>
+  </si>
+  <si>
+    <t>- int stars;
+- List&lt;String&gt; tags;
+- String comments;
+- boolean visibility;
+- Evaluation evaluation;</t>
+  </si>
+  <si>
+    <t>- double balance;
+- List&lt;PaymentMethod&gt; availableMethods;
+- PaymentMethod selectedMethod;</t>
+  </si>
+  <si>
+    <t>- PaymentMethod paymentMethod;
+- List&lt;String&gt; validationErrors;</t>
+  </si>
+  <si>
+    <t>- Rental rental;
+- RentalTerms terms;
+- boolean hasInvalidFields;</t>
+  </si>
+  <si>
+    <t>- DocumentSet documents;
+- List&lt;String&gt; errorMessages;</t>
+  </si>
+  <si>
+    <t>- DatabaseConnection dbConnection;
+- Logger logger;
+- QueryBuilder queryBuilder;</t>
+  </si>
+  <si>
+    <t>Rental Termination Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1244,8 +1594,41 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,8 +1689,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1363,11 +1757,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1381,17 +1789,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,13 +1801,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,7 +1814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,19 +1835,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,16 +1844,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1805,29 +2242,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
-  <dimension ref="A1:AD113"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="61" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
     <col min="9" max="9" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="34.5" customWidth="1"/>
-    <col min="11" max="11" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" customWidth="1"/>
-    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.1640625" customWidth="1"/>
+    <col min="11" max="11" width="50.5" customWidth="1"/>
+    <col min="12" max="12" width="48.5" customWidth="1"/>
+    <col min="13" max="13" width="59" customWidth="1"/>
     <col min="14" max="14" width="45.83203125" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.83203125" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="40.83203125" customWidth="1"/>
     <col min="18" max="18" width="26.83203125" customWidth="1"/>
@@ -1843,188 +2280,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:29" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A1" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="O2" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" s="39" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I4" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J4" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K4" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L4" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="O3" s="19" t="s">
+      <c r="M4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
@@ -2041,46 +2466,48 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="G5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>334</v>
+      <c r="N5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
@@ -2097,43 +2524,47 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="O6" s="13"/>
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -2149,29 +2580,43 @@
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
+      <c r="A7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="O7" s="8"/>
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2187,25 +2632,29 @@
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
+      <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -2221,25 +2670,25 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="13"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -2255,25 +2704,25 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2289,23 +2738,25 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2320,22 +2771,24 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="11"/>
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2350,24 +2803,22 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2382,938 +2833,865 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>48</v>
-      </c>
+    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" s="26" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I17" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K17" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L17" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M17" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O17" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
-    </row>
-    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="14" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H18" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L18" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M18" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N18" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O18" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
-    </row>
-    <row r="17" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B19" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="14" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H19" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I19" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M19" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N19" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
-    </row>
-    <row r="18" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="O19" s="8"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="14" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J20" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K20" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N20" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="6"/>
-    </row>
-    <row r="19" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="O20" s="8"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="14" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H21" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14" t="s">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
-    </row>
-    <row r="20" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="O21" s="8"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="14" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H22" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-    </row>
-    <row r="21" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
+      <c r="O23" s="8"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6"/>
-    </row>
-    <row r="22" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6"/>
-    </row>
-    <row r="23" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6"/>
-    </row>
-    <row r="24" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="14" t="s">
+      <c r="I30" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="6"/>
-    </row>
-    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="6"/>
-    </row>
-    <row r="26" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="6"/>
-    </row>
-    <row r="27" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="6"/>
-    </row>
-    <row r="28" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="6"/>
-    </row>
-    <row r="29" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="6"/>
-    </row>
-    <row r="30" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="6"/>
-    </row>
-    <row r="31" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="P31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="6"/>
-    </row>
-    <row r="32" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="36"/>
-      <c r="P32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="6"/>
-    </row>
-    <row r="33" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="P33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="6"/>
-    </row>
-    <row r="34" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="38"/>
-      <c r="P34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="6"/>
-    </row>
-    <row r="35" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="38"/>
-      <c r="P35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="6"/>
-    </row>
-    <row r="36" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3328,535 +3706,542 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+    </row>
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C41" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D41" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E41" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H41" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+    </row>
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C42" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H42" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L42" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="24" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="24" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="H49" s="5"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
+      <c r="M50"/>
     </row>
     <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-    </row>
-    <row r="53" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-    </row>
-    <row r="54" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-    </row>
-    <row r="55" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="5"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -3874,20 +4259,35 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="5"/>
+      <c r="A57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -3904,34 +4304,82 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="5"/>
+    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -3949,15 +4397,27 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="A60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -3975,18 +4435,22 @@
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" s="8"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="O61" s="3"/>
@@ -4006,25 +4470,23 @@
       <c r="AC61" s="3"/>
     </row>
     <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -4038,58 +4500,34 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
@@ -4107,21 +4545,15 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -4139,9 +4571,11 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="13" t="s">
-        <v>173</v>
+      <c r="A66" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4151,9 +4585,6 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
@@ -4171,9 +4602,11 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="13" t="s">
-        <v>174</v>
+      <c r="A67" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4188,7 +4621,6 @@
       <c r="M67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -4203,9 +4635,11 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="13" t="s">
-        <v>175</v>
+      <c r="A68" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4235,9 +4669,11 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="13" t="s">
-        <v>302</v>
+      <c r="A69" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4267,11 +4703,13 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -4297,8 +4735,10 @@
       <c r="AC70" s="3"/>
     </row>
     <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4327,10 +4767,10 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="3"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4359,10 +4799,10 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="3"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4391,10 +4831,10 @@
       <c r="AC73" s="3"/>
     </row>
     <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4406,7 +4846,6 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -4424,13 +4863,11 @@
       <c r="AC74" s="3"/>
     </row>
     <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -4439,7 +4876,6 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
@@ -4457,9 +4893,7 @@
       <c r="AC75" s="3"/>
     </row>
     <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4472,7 +4906,6 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
@@ -4490,8 +4923,8 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>113</v>
+      <c r="A77" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4505,7 +4938,6 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
@@ -4522,9 +4954,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>115</v>
+    <row r="78" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4538,7 +4970,6 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
@@ -4555,9 +4986,9 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>117</v>
+    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4571,7 +5002,6 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
@@ -4589,8 +5019,8 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>145</v>
+      <c r="A80" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4622,8 +5052,8 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>147</v>
+      <c r="A81" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4655,8 +5085,8 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>155</v>
+      <c r="A82" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4688,8 +5118,8 @@
       <c r="AC82" s="3"/>
     </row>
     <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>163</v>
+      <c r="A83" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4721,12 +5151,12 @@
       <c r="AC83" s="3"/>
     </row>
     <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>166</v>
+      <c r="A84" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4754,8 +5184,8 @@
       <c r="AC84" s="3"/>
     </row>
     <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>190</v>
+      <c r="A85" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4787,9 +5217,22 @@
       <c r="AC85" s="3"/>
     </row>
     <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="A86" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
@@ -4807,9 +5250,22 @@
       <c r="AC86" s="3"/>
     </row>
     <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>203</v>
-      </c>
+      <c r="A87" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
@@ -4827,9 +5283,22 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="A88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
@@ -4847,128 +5316,288 @@
       <c r="AC88" s="3"/>
     </row>
     <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+    </row>
+    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+    </row>
+    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+    </row>
+    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+    </row>
+    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+    </row>
+    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
+    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
+    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
+    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
+    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
+    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
+    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
+    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
+    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Παραδοτεο 3/domain_classes.xlsx
+++ b/Παραδοτεο 3/domain_classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτεο 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89BF29-05E6-564F-B2C1-B9FE35530CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC04D3-32E3-E549-B0C0-17881DB0BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22520" yWindow="-27020" windowWidth="67720" windowHeight="27020" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -1163,9 +1163,6 @@
     <t>FORMS</t>
   </si>
   <si>
-    <t>MANAGER SCREENS</t>
-  </si>
-  <si>
     <t>increaseReliabilityScore()</t>
   </si>
   <si>
@@ -1521,12 +1518,15 @@
   <si>
     <t>Rental Termination Manager</t>
   </si>
+  <si>
+    <t>MANAGER CLASSES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2244,11 +2244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EEC790-0419-B546-8A07-738B2C0DA31C}">
   <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="61" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2279,9 +2279,9 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="70" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2298,7 +2298,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P2" s="3"/>
       <c r="R2" s="3"/>
@@ -2358,54 +2358,54 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="39" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="39" customFormat="1" ht="126">
       <c r="A3" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="N3" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="O3" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="O3" s="37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="35" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="30" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="30" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>107</v>
@@ -2703,7 +2703,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="30" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>109</v>
@@ -2737,7 +2737,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="30" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>111</v>
@@ -2771,7 +2771,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="30" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -2803,7 +2803,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="84" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2833,7 +2833,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="59" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>372</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
@@ -2915,50 +2915,50 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="26" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="26" customFormat="1" ht="144">
       <c r="A16" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="K16" s="27" t="s">
         <v>400</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>401</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N16" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="O16" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="30" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>139</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>146</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>179</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="30" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>282</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>318</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>328</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="30" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -3405,39 +3405,39 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="26" customFormat="1" ht="96">
       <c r="A29" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="J29" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>234</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>237</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>311</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>343</v>
@@ -3531,7 +3531,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>243</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="30" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>249</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="66" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3675,7 +3675,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="68" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>373</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="30" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3757,42 +3757,42 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="80">
       <c r="A38" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="H38" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="I38" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="J38" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="K38" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>425</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>426</v>
       </c>
       <c r="P38" s="3"/>
       <c r="R38" s="3"/>
@@ -3808,7 +3808,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="30" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>142</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>193</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="64">
       <c r="A44" s="5" t="s">
         <v>194</v>
       </c>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -4030,7 +4030,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>218</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="L45" s="5"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="L46" s="5"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="L47" s="5"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>270</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="L48" s="5"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="L49" s="5"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>304</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="L50" s="5"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>335</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="L51" s="5"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>357</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="L52" s="5"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4222,11 +4222,11 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1"/>
+    <row r="56" spans="1:29" ht="45" customHeight="1">
       <c r="A56" s="35" t="s">
         <v>374</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="30" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4304,30 +4304,30 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="80">
       <c r="A58" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="C58" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="D58" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="F58" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="G58" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>434</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>435</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -4350,7 +4350,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="30" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>79</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="30" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="30" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
@@ -4469,7 +4469,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="30" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4500,7 +4500,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="31" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4515,7 +4515,7 @@
       <c r="J63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="30" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4544,7 +4544,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="30" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4570,7 +4570,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="30" customHeight="1">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="30" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>242</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="30" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>256</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="30" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>267</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="30" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="8" t="s">
         <v>172</v>
@@ -4734,7 +4734,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="30" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="8" t="s">
         <v>173</v>
@@ -4766,7 +4766,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="30" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="8" t="s">
         <v>174</v>
@@ -4798,7 +4798,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="30" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>175</v>
@@ -4830,7 +4830,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="30" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>302</v>
@@ -4862,7 +4862,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="30" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4892,7 +4892,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="30" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4922,7 +4922,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="30" customHeight="1">
       <c r="A77" s="14" t="s">
         <v>2</v>
       </c>
@@ -4954,9 +4954,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="48">
       <c r="A78" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4986,7 +4986,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="32" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="30" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>73</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="30" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="30" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="30" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="30" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>115</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="30" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="30" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>145</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="30" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>147</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="30" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="30" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="30" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>166</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="30" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>190</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="30" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>198</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="30" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>203</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>204</v>
       </c>
@@ -5475,123 +5475,123 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>208</v>
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="30" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>216</v>
       </c>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>232</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="30" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>246</v>
       </c>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="30" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="30" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="30" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="30" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="30" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="30" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="30" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="30" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="30" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="30" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="30" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="30" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="30" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="30" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="30" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="30" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="30" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="30" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:1" ht="30" customHeight="1"/>
+    <row r="118" spans="1:1" ht="30" customHeight="1"/>
+    <row r="119" spans="1:1" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>

--- a/Παραδοτεο 3/domain_classes.xlsx
+++ b/Παραδοτεο 3/domain_classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasiliskyriakos/Documents/GitHub/HomeLink/Παραδοτεο 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lampis/Documents/GitHub/HomeLink/Παραδοτεο 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC04D3-32E3-E549-B0C0-17881DB0BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A005EEB-B578-3C4D-B4FF-299DA683EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" xr2:uid="{829DA93E-827C-F04B-84D9-7487EE56970B}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Classes" sheetId="2" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1871,18 +1871,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1905,6 +1893,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2248,7 +2248,7 @@
       <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
@@ -2279,27 +2279,27 @@
     <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="70" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2341,7 +2341,7 @@
       <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="40" t="s">
         <v>436</v>
       </c>
       <c r="P2" s="3"/>
@@ -2358,54 +2358,54 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" s="39" customFormat="1" ht="126">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:29" s="35" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="33" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="35" customHeight="1">
+    <row r="4" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="30" customHeight="1">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1">
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>107</v>
@@ -2703,7 +2703,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>109</v>
@@ -2737,7 +2737,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1">
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>111</v>
@@ -2771,7 +2771,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1">
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -2803,7 +2803,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="84" customHeight="1">
+    <row r="13" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2833,24 +2833,24 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="59" customHeight="1">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:29" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2865,11 +2865,11 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -2878,10 +2878,10 @@
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="39" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -2890,7 +2890,7 @@
       <c r="H15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="38" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -2905,7 +2905,7 @@
       <c r="M15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="36" t="s">
         <v>47</v>
       </c>
       <c r="O15" s="11" t="s">
@@ -2915,7 +2915,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:29" s="26" customFormat="1" ht="144">
+    <row r="16" spans="1:29" s="26" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>391</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1">
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1">
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1">
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1">
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1">
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>139</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>146</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1">
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>179</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>282</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>318</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>328</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -3371,10 +3371,10 @@
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="36" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -3405,7 +3405,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" s="26" customFormat="1" ht="96">
+    <row r="29" spans="1:29" s="26" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>404</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1">
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>234</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>237</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>243</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="30" customHeight="1">
+    <row r="33" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>249</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="30" customHeight="1">
+    <row r="34" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="66" customHeight="1">
+    <row r="35" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3675,21 +3675,21 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="68" customHeight="1">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="P36" s="3"/>
@@ -3706,7 +3706,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="30" customHeight="1">
+    <row r="37" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="80">
+    <row r="38" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>414</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="30" customHeight="1">
+    <row r="39" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="30" customHeight="1">
+    <row r="40" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>142</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>193</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" ht="64">
+    <row r="44" spans="1:29" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>194</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="45" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>218</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="L45" s="5"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>74</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="L46" s="5"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>247</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="L47" s="5"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>270</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="L48" s="5"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="L49" s="5"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>304</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="L50" s="5"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="51" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>335</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="L51" s="5"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="52" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>357</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="L52" s="5"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="53" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4222,21 +4222,21 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1"/>
-    <row r="56" spans="1:29" ht="45" customHeight="1">
-      <c r="A56" s="35" t="s">
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4258,7 +4258,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" ht="30" customHeight="1">
+    <row r="57" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="80">
+    <row r="58" spans="1:29" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>427</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" ht="30" customHeight="1">
+    <row r="59" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>79</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" ht="30" customHeight="1">
+    <row r="60" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" ht="30" customHeight="1">
+    <row r="61" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
@@ -4469,7 +4469,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" ht="30" customHeight="1">
+    <row r="62" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4500,7 +4500,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="31" customHeight="1">
+    <row r="63" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4515,7 +4515,7 @@
       <c r="J63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:29" ht="30" customHeight="1">
+    <row r="64" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4544,7 +4544,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="30" customHeight="1">
+    <row r="65" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4570,7 +4570,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" ht="30" customHeight="1">
+    <row r="66" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" ht="30" customHeight="1">
+    <row r="67" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>242</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" ht="30" customHeight="1">
+    <row r="68" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>256</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="30" customHeight="1">
+    <row r="69" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>267</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" ht="30" customHeight="1">
+    <row r="70" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="8" t="s">
         <v>172</v>
@@ -4734,7 +4734,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="30" customHeight="1">
+    <row r="71" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="8" t="s">
         <v>173</v>
@@ -4766,7 +4766,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="30" customHeight="1">
+    <row r="72" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="8" t="s">
         <v>174</v>
@@ -4798,7 +4798,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="30" customHeight="1">
+    <row r="73" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>175</v>
@@ -4830,7 +4830,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="30" customHeight="1">
+    <row r="74" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>302</v>
@@ -4862,7 +4862,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="30" customHeight="1">
+    <row r="75" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4892,7 +4892,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="30" customHeight="1">
+    <row r="76" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4922,7 +4922,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" ht="30" customHeight="1">
+    <row r="77" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>2</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="48">
+    <row r="78" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>435</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="32" customHeight="1">
+    <row r="79" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="30" customHeight="1">
+    <row r="80" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>73</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="30" customHeight="1">
+    <row r="81" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" ht="30" customHeight="1">
+    <row r="82" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" ht="30" customHeight="1">
+    <row r="83" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>113</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="30" customHeight="1">
+    <row r="84" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>115</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="30" customHeight="1">
+    <row r="85" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="30" customHeight="1">
+    <row r="86" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>145</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="30" customHeight="1">
+    <row r="87" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>147</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="30" customHeight="1">
+    <row r="88" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" ht="30" customHeight="1">
+    <row r="89" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" ht="30" customHeight="1">
+    <row r="90" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>166</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" ht="30" customHeight="1">
+    <row r="91" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>190</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" ht="30" customHeight="1">
+    <row r="92" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>198</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" ht="30" customHeight="1">
+    <row r="93" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>203</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" ht="30" customHeight="1">
+    <row r="94" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>204</v>
       </c>
@@ -5475,123 +5475,123 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" ht="30" customHeight="1">
+    <row r="95" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>208</v>
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:29" ht="30" customHeight="1">
+    <row r="96" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>216</v>
       </c>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" ht="30" customHeight="1">
+    <row r="97" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>232</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" ht="30" customHeight="1">
+    <row r="98" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>246</v>
       </c>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="30" customHeight="1">
+    <row r="99" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="30" customHeight="1">
+    <row r="100" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="30" customHeight="1">
+    <row r="101" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="30" customHeight="1">
+    <row r="102" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="30" customHeight="1">
+    <row r="103" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="30" customHeight="1">
+    <row r="104" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="30" customHeight="1">
+    <row r="105" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="30" customHeight="1">
+    <row r="106" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="30" customHeight="1">
+    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="30" customHeight="1">
+    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="30" customHeight="1">
+    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="30" customHeight="1">
+    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="30" customHeight="1">
+    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="30" customHeight="1">
+    <row r="112" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="30" customHeight="1">
+    <row r="113" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="30" customHeight="1">
+    <row r="114" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="30" customHeight="1">
+    <row r="115" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="30" customHeight="1">
+    <row r="116" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="30" customHeight="1"/>
-    <row r="118" spans="1:1" ht="30" customHeight="1"/>
-    <row r="119" spans="1:1" ht="30" customHeight="1"/>
+    <row r="117" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
